--- a/Documentação/Planilhas/Layouts/Inventory_Supplier.xlsx
+++ b/Documentação/Planilhas/Layouts/Inventory_Supplier.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="19875" windowHeight="7710" tabRatio="864" firstSheet="12"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="93" r:id="rId1"/>
@@ -19,16 +19,19 @@
     <sheet name="ods_financiamento_estoque" sheetId="115" r:id="rId10"/>
     <sheet name="ods_financiamento_pedido_aberto" sheetId="122" r:id="rId11"/>
     <sheet name="ods_sige_estoque_cmd" sheetId="120" r:id="rId12"/>
-    <sheet name="stg_estoque_historico" sheetId="113" r:id="rId13"/>
-    <sheet name="stg_financiamento_estoque" sheetId="111" r:id="rId14"/>
-    <sheet name="stg_sige_estoque_cmd" sheetId="107" r:id="rId15"/>
+    <sheet name="ods_sige_fornecedor" sheetId="125" r:id="rId13"/>
+    <sheet name="ods_sige_titulo_pagamento" sheetId="126" r:id="rId14"/>
+    <sheet name="stg_estoque_historico" sheetId="113" r:id="rId15"/>
+    <sheet name="stg_financiamento_estoque" sheetId="111" r:id="rId16"/>
+    <sheet name="stg_sige_estoque_cmd" sheetId="107" r:id="rId17"/>
+    <sheet name="stg_sige_fornecedor" sheetId="124" r:id="rId18"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="222">
   <si>
     <t>Campo</t>
   </si>
@@ -561,9 +564,6 @@
     <t>Valor ponderado do saldo do Contas a Pagar</t>
   </si>
   <si>
-    <t>ods_sige_estoque_cmd</t>
-  </si>
-  <si>
     <t>[dbo].[ods_financiamento_estoque]</t>
   </si>
   <si>
@@ -621,24 +621,6 @@
     <t>Identifica a Unidade Federativa do Fornecedor através de sua sigla. Ex: AL, SP, RJ, etc</t>
   </si>
   <si>
-    <t>aux_estoque_cmd_hist</t>
-  </si>
-  <si>
-    <t>aux_inventory_abatimento</t>
-  </si>
-  <si>
-    <t>stg_sige_estoque_cmd</t>
-  </si>
-  <si>
-    <t>fact_financiamento_estoque</t>
-  </si>
-  <si>
-    <t>ods_financiamento_pedido_aberto</t>
-  </si>
-  <si>
-    <t>dim_sige_fornecedor</t>
-  </si>
-  <si>
     <t>Valor do Custo Médio diário do item</t>
   </si>
   <si>
@@ -649,13 +631,79 @@
   </si>
   <si>
     <t>Valor do Custo Médio Diário</t>
+  </si>
+  <si>
+    <t>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_historico_estoque.dtsx</t>
+  </si>
+  <si>
+    <t>[dbo].[stg_sige_fornecedor]</t>
+  </si>
+  <si>
+    <t>CLIE_ID_TERCEIRO</t>
+  </si>
+  <si>
+    <t>CLIE_NOME</t>
+  </si>
+  <si>
+    <t>CLIE_APELIDO</t>
+  </si>
+  <si>
+    <t>MUNI_ID_ESTADO</t>
+  </si>
+  <si>
+    <t>SIGECONSULTA</t>
+  </si>
+  <si>
+    <t>terceiro_corporativo</t>
+  </si>
+  <si>
+    <t>cia_terceiro</t>
+  </si>
+  <si>
+    <t>terceiro_enderecos</t>
+  </si>
+  <si>
+    <t>municipios</t>
+  </si>
+  <si>
+    <t>BANCO</t>
+  </si>
+  <si>
+    <t>Está desabilitado</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_sige_fornecedor]</t>
+  </si>
+  <si>
+    <t>stg_sige_fornecedor</t>
+  </si>
+  <si>
+    <t>[dbo].[ods_sige_titulo_pagamento]</t>
+  </si>
+  <si>
+    <t>id_transacao</t>
+  </si>
+  <si>
+    <t>Identifica o Título através do seu número. Ex: 451047, 1296193, etc</t>
+  </si>
+  <si>
+    <t>Identifica a Transação do Título através do seu código. Ex: 5, 6, etc</t>
+  </si>
+  <si>
+    <t>Valor da Transação realizada</t>
+  </si>
+  <si>
+    <t>Data da Transação do formato AAAAMMDD</t>
+  </si>
+  <si>
+    <t>ods_sige_titulo_movimento</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +733,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -700,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -797,17 +852,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -862,43 +906,6 @@
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -932,6 +939,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -940,7 +992,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -970,31 +1022,36 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1241,6 +1298,141 @@
 </file>
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>545167</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78442" y="67236"/>
+          <a:ext cx="2047875" cy="861732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1930,189 +2122,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D20"/>
+  <dimension ref="B2:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" style="2" customWidth="1"/>
+    <col min="4" max="4" width="84.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
-      <c r="B2" s="11" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="C3" s="15" t="str">
+    <row r="3" spans="2:5">
+      <c r="B3" s="16" t="str">
+        <f>aux_estoque_cmd_hist!B9</f>
+        <v>[dbo].[aux_estoque_cmd_hist]</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>aux_estoque_cmd_hist!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D3" s="22" t="str">
         <f>aux_estoque_cmd_hist!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\stg_inventory.dtsx</v>
       </c>
-      <c r="D3" s="15"/>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="C4" s="15" t="str">
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="16" t="str">
+        <f>aux_inventory_abatimento!B9</f>
+        <v>[dbo].[aux_inventory_abatimento]</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>aux_inventory_abatimento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D4" s="22" t="str">
         <f>aux_inventory_abatimento!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="15" t="str">
+      <c r="E4" s="17"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="16" t="str">
+        <f>aux_inventory_cmd!B9</f>
+        <v>[dbo].[aux_inventory_cmd]</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>aux_inventory_cmd!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D5" s="22" t="str">
         <f>aux_inventory_cmd!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D5" s="15"/>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="C6" s="15" t="str">
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="16" t="str">
+        <f>aux_inventory_regra!B9</f>
+        <v>[dbo].[aux_inventory_regra]</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>aux_inventory_regra!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D6" s="22" t="str">
         <f>aux_inventory_regra!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D6" s="15"/>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="C7" s="15" t="str">
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="16" t="str">
+        <f>aux_inventory_saldo!B9</f>
+        <v>[dbo].[aux_inventory_saldo]</v>
+      </c>
+      <c r="C7" s="21" t="str">
+        <f>aux_inventory_saldo!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D7" s="22" t="str">
         <f>aux_inventory_saldo!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D7" s="15"/>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="15" t="str">
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="16" t="str">
+        <f>dim_sige_fornecedor!B9</f>
+        <v>[dbo].[dim_sige_fornecedor]</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>dim_sige_fornecedor!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D8" s="22" t="str">
         <f>dim_sige_fornecedor!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D8" s="17"/>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="15" t="str">
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="16" t="str">
+        <f>fact_financiamento_estoque!B9</f>
+        <v>[dbo].[fact_financiamento_estoque]</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>fact_financiamento_estoque!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D9" s="22" t="str">
         <f>fact_financiamento_estoque!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="15" t="str">
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="16" t="str">
+        <f>ods_estoque_historico!B9</f>
+        <v>[dbo].[ods_estoque_historico]</v>
+      </c>
+      <c r="C10" s="21" t="str">
+        <f>ods_estoque_historico!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D10" s="22" t="str">
         <f>ods_estoque_historico!B10</f>
-        <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\stg_historico_estoque.dtsx</v>
-      </c>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="15" t="str">
+        <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_historico_estoque.dtsx</v>
+      </c>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="16" t="str">
+        <f>ods_financiamento_estoque!B9</f>
+        <v>[dbo].[ods_financiamento_estoque]</v>
+      </c>
+      <c r="C11" s="21" t="str">
+        <f>ods_financiamento_estoque!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D11" s="22" t="str">
         <f>ods_financiamento_estoque!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="15" t="str">
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="16" t="str">
+        <f>ods_financiamento_pedido_aberto!B9</f>
+        <v>[dbo].[ods_financiamento_pedido_aberto]</v>
+      </c>
+      <c r="C12" s="21" t="str">
+        <f>ods_financiamento_pedido_aberto!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D12" s="22" t="str">
         <f>ods_financiamento_pedido_aberto!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="15" t="str">
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="16" t="str">
+        <f>ods_sige_estoque_cmd!B9</f>
+        <v>[dbo].[ods_sige_estoque_cmd]</v>
+      </c>
+      <c r="C13" s="21" t="str">
+        <f>ods_sige_estoque_cmd!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D13" s="22" t="str">
         <f>ods_sige_estoque_cmd!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="2:4">
-      <c r="B14" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="15" t="str">
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="16" t="str">
+        <f>ods_sige_fornecedor!B9</f>
+        <v>[dbo].[ods_sige_fornecedor]</v>
+      </c>
+      <c r="C14" s="21" t="str">
+        <f>ods_sige_fornecedor!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D14" s="22" t="str">
+        <f>ods_sige_fornecedor!B10</f>
+        <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="16" t="str">
+        <f>stg_estoque_historico!B9</f>
+        <v>[dbo].[stg_estoque_historico]</v>
+      </c>
+      <c r="C15" s="21" t="str">
+        <f>stg_estoque_historico!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D15" s="22" t="str">
         <f>stg_estoque_historico!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\stg_historico_estoque.dtsx</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="15" t="str">
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="16" t="str">
+        <f>stg_financiamento_estoque!B9</f>
+        <v>[dbo].[stg_financiamento_estoque]</v>
+      </c>
+      <c r="C16" s="21" t="str">
+        <f>stg_financiamento_estoque!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D16" s="22" t="str">
         <f>stg_financiamento_estoque!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\stg_inventory.dtsx</v>
       </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C16" s="15" t="str">
+      <c r="E16" s="17"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="16" t="str">
+        <f>stg_sige_estoque_cmd!B9</f>
+        <v>[dbo].[stg_sige_estoque_cmd]</v>
+      </c>
+      <c r="C17" s="21" t="str">
+        <f>stg_sige_estoque_cmd!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D17" s="22" t="str">
         <f>stg_sige_estoque_cmd!B10</f>
         <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\stg_inventory.dtsx</v>
       </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="16"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="16"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="20"/>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="16" t="str">
+        <f>stg_sige_fornecedor!B9</f>
+        <v>[dbo].[stg_sige_fornecedor]</v>
+      </c>
+      <c r="C18" s="21" t="str">
+        <f>stg_sige_fornecedor!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D18" s="22" t="str">
+        <f>stg_sige_fornecedor!B10</f>
+        <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\stg_inventory.dtsx</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="16" t="str">
+        <f>ods_sige_titulo_pagamento!B9</f>
+        <v>[dbo].[ods_sige_titulo_pagamento]</v>
+      </c>
+      <c r="C19" s="21" t="str">
+        <f>ods_sige_titulo_pagamento!B8</f>
+        <v>MIS_DW</v>
+      </c>
+      <c r="D19" s="22" t="str">
+        <f>ods_sige_titulo_pagamento!B10</f>
+        <v>N:\Migracao\Inventory Supplier_LN\Inventory Supplier_LN\ods_inventory.dtsx</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="16"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="17"/>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="18"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="19"/>
     </row>
   </sheetData>
   <sortState ref="B3:D16">
@@ -2130,9 +2441,12 @@
     <hyperlink ref="B11" location="ods_financiamento_estoque!A1" display="ods_financiamento_estoque"/>
     <hyperlink ref="B12" location="ods_financiamento_pedido_aberto!A1" display="ods_financiamento_pedido_aberto"/>
     <hyperlink ref="B13" location="ods_sige_estoque_cmd!A1" display="ods_sige_estoque_cmd"/>
-    <hyperlink ref="B14" location="stg_estoque_historico!A1" display="stg_estoque_historico"/>
-    <hyperlink ref="B15" location="stg_financiamento_estoque!A1" display="stg_financiamento_estoque"/>
-    <hyperlink ref="B16" location="stg_sige_estoque_cmd!A1" display="stg_sige_estoque_cmd"/>
+    <hyperlink ref="B15" location="stg_estoque_historico!A1" display="stg_estoque_historico"/>
+    <hyperlink ref="B16" location="stg_financiamento_estoque!A1" display="stg_financiamento_estoque"/>
+    <hyperlink ref="B17" location="stg_sige_estoque_cmd!A1" display="stg_sige_estoque_cmd"/>
+    <hyperlink ref="B18" location="stg_sige_fornecedor!A1" display="stg_sige_fornecedor!A1"/>
+    <hyperlink ref="B14" location="ods_sige_fornecedor!A1" display="ods_sige_fornecedor!A1"/>
+    <hyperlink ref="B19" location="ods_sige_titulo_pagamento!A1" display="ods_sige_titulo_pagamento!A1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -2145,9 +2459,7 @@
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2193,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2293,7 +2605,7 @@
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2307,7 +2619,7 @@
       <c r="A20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2321,7 +2633,7 @@
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>112</v>
       </c>
       <c r="D21" s="8"/>
@@ -2331,7 +2643,7 @@
       <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="8"/>
@@ -2351,7 +2663,7 @@
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2359,7 +2671,7 @@
       <c r="A25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2367,7 +2679,7 @@
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2399,7 +2711,7 @@
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2407,7 +2719,7 @@
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2415,7 +2727,7 @@
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2423,7 +2735,7 @@
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2431,7 +2743,7 @@
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2440,7 +2752,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
@@ -2471,7 +2783,7 @@
       <c r="A39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2479,7 +2791,7 @@
       <c r="A40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2599,7 +2911,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2636,7 +2948,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -2651,10 +2963,10 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2664,12 +2976,12 @@
         <v>34</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>121</v>
@@ -2689,9 +3001,7 @@
   </sheetPr>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2737,7 +3047,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2774,7 +3084,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
@@ -2792,7 +3102,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -2805,6 +3115,278 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2930,7 +3512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3052,10 +3634,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -3066,10 +3648,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -3080,10 +3662,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -3094,10 +3676,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -3108,10 +3690,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -3122,124 +3704,124 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="A34" s="7" t="s">
@@ -3248,32 +3830,32 @@
       <c r="B34" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3282,16 +3864,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3396,7 +3976,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>11</v>
@@ -3420,8 +4000,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
     </row>
@@ -3434,16 +4014,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3489,7 +4067,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3517,6 +4095,154 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="D19" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="33.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1"/>
+    <row r="2" spans="1:5" ht="18" customHeight="1"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1"/>
+    <row r="4" spans="1:5" ht="18" customHeight="1"/>
+    <row r="5" spans="1:5" ht="18" customHeight="1"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1">
+      <c r="A13" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
@@ -3548,7 +4274,7 @@
         <v>86</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -3562,8 +4288,8 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" customHeight="1">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2" ht="30" customHeight="1"/>
     <row r="20" spans="1:2" ht="30" customHeight="1"/>
@@ -3695,7 +4421,7 @@
       <c r="A17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3727,7 +4453,7 @@
       <c r="A21" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3735,7 +4461,7 @@
       <c r="A22" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3743,7 +4469,7 @@
       <c r="A23" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -3751,7 +4477,7 @@
       <c r="A24" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="12" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3759,7 +4485,7 @@
       <c r="A25" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="12" t="s">
         <v>142</v>
       </c>
     </row>
@@ -3785,9 +4511,7 @@
   </sheetPr>
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -3919,7 +4643,7 @@
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="8"/>
@@ -3940,7 +4664,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1">
@@ -3955,7 +4679,7 @@
       <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3981,9 +4705,7 @@
   </sheetPr>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4109,7 +4831,7 @@
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4117,7 +4839,7 @@
       <c r="A20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4125,7 +4847,7 @@
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4133,7 +4855,7 @@
       <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4149,7 +4871,7 @@
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4157,7 +4879,7 @@
       <c r="A25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="12" t="s">
         <v>140</v>
       </c>
     </row>
@@ -4165,7 +4887,7 @@
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4197,7 +4919,7 @@
       <c r="A30" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4205,7 +4927,7 @@
       <c r="A31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4213,7 +4935,7 @@
       <c r="A32" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4222,7 +4944,7 @@
         <v>86</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" customHeight="1">
@@ -4237,7 +4959,7 @@
       <c r="A35" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="12" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4245,7 +4967,7 @@
       <c r="A36" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4253,7 +4975,7 @@
       <c r="A37" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -4261,7 +4983,7 @@
       <c r="A38" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="12" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4269,7 +4991,7 @@
       <c r="A39" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="12" t="s">
         <v>172</v>
       </c>
     </row>
@@ -4277,7 +4999,7 @@
       <c r="A40" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="12" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4285,7 +5007,7 @@
       <c r="A41" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4401,7 +5123,7 @@
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -4463,7 +5185,7 @@
       <c r="A21" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4535,7 +5257,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4563,10 +5285,10 @@
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="A14" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>11</v>
@@ -4577,10 +5299,10 @@
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>11</v>
@@ -4591,20 +5313,20 @@
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
       <c r="A16" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4621,9 +5343,7 @@
   </sheetPr>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -4669,7 +5389,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4749,7 +5469,7 @@
       <c r="A19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -4757,7 +5477,7 @@
       <c r="A20" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="12" t="s">
         <v>62</v>
       </c>
     </row>
@@ -4765,7 +5485,7 @@
       <c r="A21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="12" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4773,7 +5493,7 @@
       <c r="A22" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="12" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4789,7 +5509,7 @@
       <c r="A24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="12" t="s">
         <v>63</v>
       </c>
     </row>
@@ -4797,7 +5517,7 @@
       <c r="A25" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="12" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4805,7 +5525,7 @@
       <c r="A26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="12" t="s">
         <v>65</v>
       </c>
     </row>
@@ -4837,7 +5557,7 @@
       <c r="A30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="12" t="s">
         <v>67</v>
       </c>
     </row>
@@ -4845,7 +5565,7 @@
       <c r="A31" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -4853,7 +5573,7 @@
       <c r="A32" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -4861,7 +5581,7 @@
       <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="12" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4869,7 +5589,7 @@
       <c r="A34" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="12" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4878,7 +5598,7 @@
         <v>86</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30" customHeight="1">
@@ -4909,7 +5629,7 @@
       <c r="A39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="12" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4917,7 +5637,7 @@
       <c r="A40" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5045,7 +5765,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="29.25" customHeight="1"/>
@@ -5094,8 +5814,8 @@
       <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:2" ht="30" customHeight="1">
       <c r="A17" s="6" t="s">
